--- a/Tradução - Maicon/Controle.xlsx
+++ b/Tradução - Maicon/Controle.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Controle" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="90">
   <si>
     <t>Inglês</t>
   </si>
@@ -267,23 +267,32 @@
     <t>Enviado</t>
   </si>
   <si>
-    <t>Util (rever)</t>
-  </si>
-  <si>
-    <t>StringFilter</t>
-  </si>
-  <si>
-    <t>testar</t>
-  </si>
-  <si>
-    <t>??</t>
+    <t>Maicon</t>
+  </si>
+  <si>
+    <t>Daiana</t>
+  </si>
+  <si>
+    <t>sem tradução</t>
+  </si>
+  <si>
+    <t>Presenters.UI</t>
+  </si>
+  <si>
+    <t>Silverlight.Util</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>próximo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,22 +323,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,7 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -784,10 +790,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -800,6 +804,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -809,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,12 +1137,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -1156,7 +1164,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1179,7 +1187,7 @@
       <c r="G3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="36" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="14"/>
@@ -1215,7 +1223,7 @@
       <c r="G4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="14"/>
@@ -1257,7 +1265,7 @@
       <c r="G5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="14"/>
@@ -1299,7 +1307,7 @@
       <c r="G6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="14"/>
@@ -1341,7 +1349,7 @@
       <c r="G7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="14"/>
@@ -1383,7 +1391,9 @@
       <c r="G8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="39"/>
+      <c r="H8" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -1423,7 +1433,9 @@
       <c r="G9" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -1460,11 +1472,11 @@
         <v>17</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="39" t="s">
-        <v>86</v>
+      <c r="H10" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1500,10 +1512,12 @@
         <v>17</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -1541,7 +1555,7 @@
       <c r="G12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="14"/>
@@ -1581,7 +1595,9 @@
       <c r="G13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1619,7 +1635,7 @@
       <c r="G14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="14"/>
@@ -1659,7 +1675,7 @@
       <c r="G15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="14"/>
@@ -1697,7 +1713,7 @@
       <c r="G16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="14"/>
@@ -1732,11 +1748,11 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="39" t="s">
-        <v>86</v>
+      <c r="H17" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1770,10 +1786,12 @@
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
@@ -1808,10 +1826,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -1849,7 +1867,7 @@
       <c r="G20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="14"/>
@@ -1891,7 +1909,7 @@
       <c r="G21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="14"/>
@@ -1933,7 +1951,7 @@
       <c r="G22" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="37" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="14"/>
@@ -1972,11 +1990,11 @@
         <v>17</v>
       </c>
       <c r="F23" s="14"/>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>86</v>
+      <c r="H23" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -2010,7 +2028,7 @@
       <c r="G24" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2030,10 +2048,12 @@
       <c r="E25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="40"/>
+      <c r="H25" s="38" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -2051,10 +2071,10 @@
       <c r="E26" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2070,10 +2090,10 @@
       <c r="E27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="40"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -2092,7 +2112,7 @@
       <c r="G28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2113,7 +2133,7 @@
       <c r="G29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2134,7 +2154,7 @@
       <c r="G30" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="40"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -2146,10 +2166,10 @@
       <c r="C31" s="6"/>
       <c r="D31" s="20"/>
       <c r="E31" s="27"/>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="40"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -2166,7 +2186,7 @@
       <c r="G32" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2182,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="27"/>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="40"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -2199,10 +2219,12 @@
         <v>4</v>
       </c>
       <c r="E34" s="26"/>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="40"/>
+      <c r="H34" s="38" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2216,101 +2238,127 @@
         <v>4</v>
       </c>
       <c r="E35" s="27"/>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="40"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="19">
+        <v>4</v>
+      </c>
       <c r="E36" s="26"/>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="40"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="20"/>
       <c r="E37" s="27"/>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="40" t="s">
-        <v>17</v>
+      <c r="H37" s="38" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="19">
+        <v>4</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="G38" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="20">
+        <v>4</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="G39" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="26"/>
-      <c r="G38" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="40"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="27"/>
-      <c r="G39" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="40"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="19"/>
+      <c r="D40" s="19">
+        <v>4</v>
+      </c>
       <c r="E40" s="26"/>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="40"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="20"/>
       <c r="E41" s="27"/>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="40"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="19"/>
+      <c r="D42" s="19">
+        <v>4</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="G42" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2323,7 +2371,7 @@
       <c r="G43" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2336,15 +2384,17 @@
       <c r="G44" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="41"/>
+      <c r="G45" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
